--- a/xlsx/Infiniti_intext.xlsx
+++ b/xlsx/Infiniti_intext.xlsx
@@ -29,7 +29,7 @@
     <t>子公司</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_Infiniti</t>
+    <t>政策_政策_混合动力车辆_Infiniti</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%A3%E4%BB%94%E5%8D%80</t>
   </si>
   <si>
-    <t>灣仔區</t>
+    <t>湾仔区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E5%92%8C%E4%B8%AD%E5%BF%83</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>汽車</t>
+    <t>汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A7%E8%82%A1%E5%85%AC%E5%8F%B8</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>日產汽車</t>
+    <t>日产汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E4%BA%A7</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E6%97%97%E9%8A%80%E8%A1%8C%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>花旗銀行大廈</t>
+    <t>花旗银行大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%91%E8%BB%8A</t>
   </si>
   <si>
-    <t>跑車</t>
+    <t>跑车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%9E%E7%AF%B7%E8%BD%A6</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E8%BD%AE%E9%A9%B1%E5%8A%A8</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%80%85</t>
   </si>
   <si>
-    <t>消費者</t>
+    <t>消费者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/V6</t>
@@ -185,19 +185,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E8%AB%BE</t>
   </si>
   <si>
-    <t>雷諾</t>
+    <t>雷诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2Skyline</t>
   </si>
   <si>
-    <t>日產Skyline</t>
+    <t>日产Skyline</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/TOYOTA</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E8%BC%AA%E9%A9%85%E5%8B%95</t>
   </si>
   <si>
-    <t>四輪驅動</t>
+    <t>四轮驱动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%95%E6%93%8E</t>
@@ -257,13 +257,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2Juke</t>
   </si>
   <si>
-    <t>日產Juke</t>
+    <t>日产Juke</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%8F%B2%E5%B0%BC%E8%BF%AA</t>
